--- a/02_programme_task/xlsx_out/29.Joel.xlsx
+++ b/02_programme_task/xlsx_out/29.Joel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,835 +453,883 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The word of the Lord that came to Joel, the son of Pethuel: An Invasion of Locusts -</t>
+          <t>Joel</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Joel 1:2</t>
+          <t>Joel 1:1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hear this, you elders; - give ear, all inhabitants of the land! - Has such a thing happened in your days, - or in the days of your fathers -</t>
+          <t>The word of the Lord that came to Joel, the son of Pethuel: An Invasion of Locusts</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Joel 1:3</t>
+          <t>Joel 1:2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tell your children of it, - and let your children tell their children, - and their children to another generation. -</t>
+          <t>a Hear this, b you elders; give ear, b all inhabitants of the land! c Has such a thing happened in your days, or in the days of your fathers?</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Joel 1:4</t>
+          <t>Joel 1:3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>What the cutting locust left, - the swarming locust has eaten. - What the swarming locust left, - the hopping locust has eaten, - and what the hopping locust left, - the destroying locust has eaten. -</t>
+          <t>d Tell your children of it, and let your children tell their children, and their children to another generation.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Joel 1:5</t>
+          <t>Joel 1:4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Awake, you drunkards, and weep, - and wail, all you drinkers of wine, - because of the sweet wine, - for it is cut off from your mouth. -</t>
+          <t>What e the cutting locust left, f the swarming locust has eaten. What the swarming locust left, g the hopping locust has eaten, and what the hopping locust left, h the destroying locust has eaten.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Joel 1:6</t>
+          <t>Joel 1:5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>For a nation has come up against my land, - powerful and beyond number; - its teeth are lions teeth, - and it has the fangs of a lioness. -</t>
+          <t>Awake, you drunkards, and weep, and i wail, all you drinkers of wine, because of j the sweet wine, for it is cut off from your mouth.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Joel 1:7</t>
+          <t>Joel 1:6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>It has laid waste my vine - and splintered my fig tree; - it has stripped off their bark and thrown it down; - their branches are made white. -</t>
+          <t>For k a nation has come up against my land, k powerful and beyond number; l its teeth are lions teeth, and it has the fangs of a lioness.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Joel 1:8</t>
+          <t>Joel 1:7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lament like a virgi n wearing sackcloth - for the bridegroom of her youth. -</t>
+          <t>It has laid waste my vine and splintered my m fig tree; it has stripped off their bark and thrown it down; their branches are made white.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Joel 1:9</t>
+          <t>Joel 1:8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>The grain offering and the drink offering are cut off - from the house of the Lord . - The priests mourn, - the ministers of the Lord . -</t>
+          <t>Lament like a virgi n</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Joel 1:10</t>
+          <t>Joel 1:9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The fields are destroyed, - the ground mourns, - because the grain is destroyed, - the wine dries up, - the oil languishes. -</t>
+          <t>n wearing sackcloth for the bridegroom of her youth.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Joel 1:11</t>
+          <t>Joel 1:9</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Be ashamed, O tillers of the soil; - wail, O vinedressers, - for the wheat and the barley, - because the harvest of the field has perished. -</t>
+          <t>o The grain offering and the drink offering are cut off from the house of the Lord. p The priests mourn, p the ministers of the Lord.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Joel 1:12</t>
+          <t>Joel 1:10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>The vine dries up; - the fig tree languishes. - Pomegranate, palm, and apple, - all the trees of the field are dried up, - and gladness dries up - from the children of man. A Call to Repentance -</t>
+          <t>The fields are destroyed, q the ground mourns, because r the grain is destroyed, r the wine dries up, the oil languishes.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Joel 1:13</t>
+          <t>Joel 1:11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Put on sackcloth and lament, O priests; - wail, O ministers of the altar. - Go in, pass the night in sackcloth, - O ministers of my God! - Because grain offering and drink offering - are withheld from the house of your God. -</t>
+          <t>s Be ashamed, O tillers of the soil; wail, O vinedressers, for the wheat and the barley, t because the harvest of the field has perished.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Joel 1:14</t>
+          <t>Joel 1:12</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Consecrate a fast; - call a solemn assembly. - Gather the elders - and all the inhabitants of the land - to the house of the Lord your God, - and cry out to the Lord . -</t>
+          <t>The vine dries up; u the fig tree languishes. Pomegranate, palm, and apple, all the trees of the field are dried up, and v gladness dries up from the children of man. A Call to Repentance</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Joel 1:15</t>
+          <t>Joel 1:13</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Alas for the day! - For the day of the Lord is near, - and as destruction from the Almight16 y it comes. -</t>
+          <t>w Put on sackcloth and lament, p O priests; x wail, O ministers of the altar. Go in, w pass the night in sackcloth, p O ministers of my God! y Because grain offering and drink offering are withheld from the house of your God.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Joel 1:16</t>
+          <t>Joel 1:14</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Is not the food cut off - before our eyes, - joy and gladness - from the house of our God -</t>
+          <t>z Consecrate a fast; z call a solemn assembly. Gather a the elders and a all the inhabitants of the land to the house of the Lord your God, and cry out to the Lord.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Joel 1:17</t>
+          <t>Joel 1:15</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The seed shrivels under the clods; - the storehouses are desolate; - the granaries are torn down - because the grain has dried up. -</t>
+          <t>Alas for the day! b For the day of the Lord is near, and as destruction from the Almight y it comes.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Joel 1:18</t>
+          <t>Joel 1:16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>How the beasts groan! - The herds of cattle are perplexed - because there is no pasture for them; - even the flocks of sheep suffer. -</t>
+          <t>Is not the food cut off before our eyes, c joy and gladness from the house of our God?</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Joel 1:19</t>
+          <t>Joel 1:17</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>To you, O Lord , I ll. - For fire has devoured - the pastures of the wilderness, - and flame has burned - all the trees of the field. -</t>
+          <t>d The seed shrivels under the clods; the storehouses are desolate; the granaries are torn down because e the grain has dried up.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Joel 1:20</t>
+          <t>Joel 1:18</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Even the beasts of the field pant for you - because the water brooks are dried up, - and fire has devoured - the pastures of the wilderness. The Day of the Lord15 - 2 -</t>
+          <t>How f the beasts groan! The herds of cattle are perplexed because there is no pasture for them; even the flocks of sheep suffer.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Joel 2:1</t>
+          <t>Joel 1:19</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Blow a trumpet in Zion; - sound an alarm on my holy mountain! - Let all the inhabitants of the land tremble, - for the day of the Lord is coming; it is near, -</t>
+          <t>To you, g O Lord, I call. h For fire has devoured the pastures of the wilderness, h and flame has burned all the trees of the field.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Joel 2:2</t>
+          <t>Joel 1:20</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>a day of darkness and gloom, - a day of clouds and thick darkness! - Like blackness there is spread upon the mountains - a great and powerful people; - their like has never been before, - nor will be again after them - through the years of all generations. -</t>
+          <t>Even the beasts of the field i pant for you because the water brooks are dried up, h and fire has devoured the pastures of the wilderness. The Day of the Lord 2:1 j Blow a trumpet in k Zion; sound an alarm on k my holy mountain! Let all the inhabitants of the land tremble, for l the day of the Lord is coming; it is near,</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Joel 2:3</t>
+          <t>Joel 2:2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fire devours before them, - and behind them a flame burns. - The land is like the garden of Eden before them, - but behind them a desolate wilderness, - and nothing escapes them. -</t>
+          <t>m a day of darkness and gloom, m a day of clouds and thick darkness! Like blackness there is spread upon the mountains n a great and powerful people; o their like has never been before, nor will be again after them through the years of all generations.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Joel 2:4</t>
+          <t>Joel 2:3</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Their appearance is like the appearance of horses, - and like war horses they run. -</t>
+          <t>p Fire devours before them, and behind them a flame burns. The land is like q the garden of Eden before them, but r behind them a desolate wilderness, and nothing escapes them.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Joel 2:5</t>
+          <t>Joel 2:4</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>As with the rumbling of chariots, - they leap on the tops of the mountains, - like the crackling of a flame of fire - devouring the stubble, - like a powerful army - drawn up for battle. -</t>
+          <t>s Their appearance is like the appearance of horses, and like war horses they run.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Joel 2:6</t>
+          <t>Joel 2:5</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Before them peoples are in anguish; - all faces grow pale. -</t>
+          <t>t As with the rumbling of chariots, they leap on the tops of the mountains, like the crackling of u a flame of fire devouring the stubble, n like a powerful army drawn up for battle.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Joel 2:7</t>
+          <t>Joel 2:6</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Like warriors they charge; - like soldiers they scale the wall. - They march each on his way; - they do not swerve from their paths. -</t>
+          <t>Before them peoples are in anguish; v all faces grow pale.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Joel 2:8</t>
+          <t>Joel 2:7</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>They do not jostle one another; - each marches in his path; - they burst through the weapons - and are not halted. -</t>
+          <t>Like warriors they charge; like soldiers they scale the wall. They march each on his way; they do not swerve from their paths.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Joel 2:9</t>
+          <t>Joel 2:8</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>They leap upon the city, - they run upon the walls, - they climb up into the houses, - they enter through the windows like a thief. -</t>
+          <t>They do not jostle one another; w each marches in his path; they burst through the weapons and are not halted.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Joel 2:10</t>
+          <t>Joel 2:9</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>The earth quakes before them; - the heavens tremble. - The sun and the moon are darkened, - and the stars withdraw their shining. -</t>
+          <t>x They leap upon the city, they run upon the walls, y they climb up into the houses, y they enter through the windows z like a thief.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Joel 2:11</t>
+          <t>Joel 2:10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>The Lord utters his voice - before his army, - for his camp is exceedingly great; - he who executes his word is powerful. - For the day of the Lord is great and very awesome; - who can endure it Return to the Lord15 -</t>
+          <t>a The earth quakes before them; the heavens tremble. b The sun and the moon are darkened, and the stars withdraw their shining.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Joel 2:12</t>
+          <t>Joel 2:11</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Yet even now, declares the Lord , - return to me with all your heart, - with fasting, with weeping, and with mourning; -</t>
+          <t>c The Lord utters his voice before d his army, for his camp is exceedingly great; e he who executes his word is powerful. f For the day of the Lord is g great and very awesome; h who can endure it? Return to the Lord</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Joel 2:13</t>
+          <t>Joel 2:12</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>and rend your hearts and not your garments. - Return to the Lord your God, - for he is gracious and merciful, - slow to anger, and abounding in steadfast love; - and he relents over disaster. -</t>
+          <t>Yet even now, declares the Lord, i return to me with all your heart, j with fasting, with weeping, and with mourning;</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Joel 2:14</t>
+          <t>Joel 2:13</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Who knows whether he will not turn and relent, - and leave a blessing behind him, - a grain offering and a drink offering - for the Lord your God -</t>
+          <t>and k rend your hearts and not l your garments. Return to the Lord your God, m for he is gracious and merciful, slow to anger, and abounding in steadfast love; n and he relents over disaster.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Joel 2:15</t>
+          <t>Joel 2:14</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Blow the trumpet in Zion; - consecrate a fast; - call a solemn assembly; -</t>
+          <t>o Who knows whether he will not turn and relent, and p leave a blessing behind him, q a grain offering and a drink offering for the Lord your God?</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Joel 2:16</t>
+          <t>Joel 2:15</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>gather the people. - Consecrate the congregation; - assemble the elders; - gather the children, - even nursing infants. - Let the bridegroom leave his room, - and the bride her chamber. -</t>
+          <t>r Blow the trumpet in Zion; s consecrate a fast; call a solemn assembly;</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Joel 2:17</t>
+          <t>Joel 2:16</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Between the vestibule and the altar - let the priests, the ministers of the Lord , weep - and say, Spare your people, O Lord , - and make not your heritage a reproach, a byword among the nations. - Why should they say among the peoples, - Where is their God The Lord15 Had Pity -</t>
+          <t>gather the people. t Consecrate the congregation; assemble the elders; u gather the children, even nursing infants. v Let the bridegroom leave his room, and the bride her chamber.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Joel 2:18</t>
+          <t>Joel 2:17</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Then the Lord became jealous for his land - and had pity on his people. -</t>
+          <t>w Between the x vestibule and the y altar z let the priests, the ministers of the Lord, weep and say, Spare your people, O Lord, and make not your heritage a reproach, a byword among the nations. a Why should they say among the peoples, Where is their God? The Lord Had Pity</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Joel 2:19</t>
+          <t>Joel 2:18</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>The Lord answered and said to his people, Behold, I m sending to you - grain, wine, and oil, and you will be satisfied; - and I will no more make you - a reproach among the nations. -</t>
+          <t>b Then the Lord became jealous for his land c and had pity on his people.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Joel 2:20</t>
+          <t>Joel 2:19</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>I will remove the northerner far from you, - and drive him into a parched and desolate land, - his vanguar16 d into the eastern sea, - and his rear guar16 d into the western sea; - the stench and foul smell of him will rise, - for he has done great things. -</t>
+          <t>The Lord answered and said to his people, Behold, d I am sending to you grain, wine, and oil, d and you will be satisfied; and I will no more make you a reproach among the nations.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Joel 2:21</t>
+          <t>Joel 2:20</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fear not, O land; - be glad and rejoice, for the Lord has done great things! -</t>
+          <t>I will remove the northerner far from you, and drive him into a parched and desolate land, his vanguar d into e the eastern sea, and his rear guar d into f the western sea; g the stench and foul smell of him will rise, for he has done great things.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Joel 2:22</t>
+          <t>Joel 2:21</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Fear not, you beasts of the field, - for the pastures of the wilderness are green; - the tree bears its fruit; - the fig tree and vine give their full yield. -</t>
+          <t>Fear not, O land; be glad and rejoice, for h the Lord has done great things!</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Joel 2:23</t>
+          <t>Joel 2:22</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Be glad, O hildren of Zion, - and rejoice in the Lord your God, - for he has given the early rain for your vindication; - he has poured down for you abundant rain, - the early and the latter rain, as before. -</t>
+          <t>Fear not, i you beasts of the field, for j the pastures of the wilderness are green; k the tree bears its fruit; the fig tree and k vine give their full yield.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Joel 2:24</t>
+          <t>Joel 2:23</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>The threshing floors shall be full of grain; - the vats shall overflow with wine and oil. -</t>
+          <t>l Be glad, O children of Zion, and l rejoice in the Lord your God, for he has given m the early rain for your vindication; he has poured down for you abundant rain, m the early and n the latter rain, as before.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Joel 2:25</t>
+          <t>Joel 2:24</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>I will restor e to you the years - that the swarming locust has eaten, - the hopper, the destroyer, and the cutter, - my great army, which I sent among you. -</t>
+          <t>The threshing floors shall be full of grain; the vats shall overflow with wine and oil.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Joel 2:26</t>
+          <t>Joel 2:25</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>You shall eat in plenty and be satisfied, - and praise the name of the Lord your God, who has dealt wondrously with you. - And my people shall never again be put to shame.</t>
+          <t>I will restor e to you the years that o the swarming locust has eaten, o the hopper, o the destroyer, and o the cutter, p my great army, which I sent among you.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Joel 2:27</t>
+          <t>Joel 2:26</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>You shall know that I am in the midst of Israel, - and that I m the Lord your God and there is none else. - And my people shall never again be put to shame. The Lord15 Will Pour Out His Spirit -</t>
+          <t>q You shall eat in plenty and be satisfied, and praise the name of the Lord your God, who has dealt wondrously with you. And my people r shall never again be put to shame.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Joel 2:29</t>
+          <t>Joel 2:27</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Even on the male and female servants - in those days I will pour out my Spirit.</t>
+          <t>s You shall know that I am t in the midst of Israel, and that u I am the Lord your God v and there is none else. And my people r shall never again be put to shame. The Lord Will Pour Out His Spirit</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Joel 2:30</t>
+          <t>Joel 2:28</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>And I will show wonders in the heavens and on the earth, blood and fire and columns of smoke.</t>
+          <t>w And it shall come to pass afterward, that x I will pour out my Spirit on all flesh; y your sons and z your daughters shall prophesy, your old men shall dream dreams, and your young men shall see visions.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Joel 2:32</t>
+          <t>Joel 2:29</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>And it shall come to pass that everyone who calls on the name of the Lord shall be saved. For in Mount Zion and in Jerusalem there shall be those who escape, as the Lord has said, and among the survivors shall be those whom the Lord calls. The Lord15 Judges the Nations 3 1</t>
+          <t>a Even on the male and female servants in those days I will pour out my Spirit.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Joel 3:1</t>
+          <t>Joel 2:30</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>For behold, in those days and at that time, when I restore the fortunes of Judah and Jerusalem, 2</t>
+          <t>And I will show b wonders in the heavens and b on the earth, blood and fire and columns of smoke.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Joel 3:3</t>
+          <t>Joel 2:31</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>and have cast lots for my people, and have traded a boy for a prostitute, and have sold a girl for wine and have drunk it. 4</t>
+          <t>c The sun shall be turned to darkness, d and the moon to blood, e before the great and awesome day of the Lord comes.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Joel 3:4</t>
+          <t>Joel 2:32</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>What are you to me, O Tyre and Sidon, and all the regions of Philistia Are you paying me back for something If you are paying me back, I will return your payment on your own head swiftly and speedily. 5</t>
+          <t>And it shall come to pass that f everyone who calls on the name of the Lord shall be saved. g For in Mount Zion and in Jerusalem there shall be those who escape, as the Lord has said, and among h the survivors shall be those whom the Lord calls. The Lord Judges the Nations</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Joel 3:5</t>
+          <t>Joel 3:1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>For you have taken my silver and my gold, and have carried my rich treasures into your temples. 6</t>
+          <t>For behold, i in those days and at that time, when I restore the fortunes of Judah and Jerusalem,</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Joel 3:6</t>
+          <t>Joel 3:2</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>You have sold the people of Judah and Jerusalem to the Greeks in order to remove them far from their own border. 7</t>
+          <t>j I will gather all the nations and bring them down to the Valley of Jehoshaphat. And k I will enter into judgment with them there, on behalf of my people and my heritage Israel, because they have scattered them among the nations and have divided up my land,</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Joel 3:7</t>
+          <t>Joel 3:3</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Behold, I will stir them up from the place to which you have sold them, and I will return your payment on your own head. 8</t>
+          <t>and l have cast lots for my people, and have traded a boy for a prostitute, and have sold a girl for wine and have drunk it.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Joel 3:8</t>
+          <t>Joel 3:4</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>I will sell your sons and your daughters into the hand of the people of Judah, and they will sell them to the Sabeans, to a nation far away, for the Lord has spoken. -</t>
+          <t>What are you to me, m O Tyre and Sidon, and all n the regions of Philistia? Are you paying me back for something? If you are paying me back, o I will return your payment on your own head swiftly and speedily.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Joel 3:9</t>
+          <t>Joel 3:5</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Proclaim this among the nations: - Consecrate for war; 1 - stir up the mighty men. - Let all the men of war draw near; - let them come up. -</t>
+          <t>For p you have taken my silver and my gold, and have carried my rich treasures into your temples.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Joel 3:10</t>
+          <t>Joel 3:6</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Beat your plowshares into swords, - and your pruning hooks into spears; - let the weak say, I m a warrior. -</t>
+          <t>You have sold q the people of Judah and Jerusalem to the Greeks in order to remove them far from their own border.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Joel 3:11</t>
+          <t>Joel 3:7</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Hasten and come, - all you surrounding nations, and gather yourselves there. - Bring down your warriors, O Lord .</t>
+          <t>Behold, I will stir them up from the place to which you have sold them, and o I will return your payment on your own head.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Joel 3:12</t>
+          <t>Joel 3:8</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Let the nations stir themselves up - and come up to the Valley of Jehoshaphat; - for there I will sit to judge - all the surrounding nations. -</t>
+          <t>I will sell your sons and your daughters into the hand of the people of Judah, and they will sell them to the r Sabeans, to a nation far away, for the Lord has spoken.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Joel 3:13</t>
+          <t>Joel 3:9</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Put in the sickle, - for the harvest is ripe. - Go in, tread, - for the winepress is full. - The vats overflow, - for their evil is great. -</t>
+          <t>Proclaim this among the nations: s Consecrate for war; stir up the mighty men. Let all the men of war draw near; let them come up.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Joel 3:14</t>
+          <t>Joel 3:10</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Multitudes, multitudes, - in the valley of decision! - For the day of the Lord is near - in the valley of decision. -</t>
+          <t>t Beat your plowshares into swords, and t your pruning hooks into spears; let the weak say, I am a warrior.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Joel 3:15</t>
+          <t>Joel 3:11</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>The sun and the moon are darkened, - and the stars withdraw their shining. -</t>
+          <t>u Hasten and come, all you surrounding nations, and gather yourselves there. v Bring down your warriors, O Lord.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Joel 3:16</t>
+          <t>Joel 3:12</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>The Lord roars from Zion, - and utters his voice from Jerusalem, and the heavens and the earth quake. - But the Lord is a refuge to his people, - a stronghold to the people of Israel. The Glorious Future of Judah -</t>
+          <t>Let the nations stir themselves up and come up to w the Valley of Jehoshaphat; x for there I will sit to judge all the surrounding nations.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Joel 3:17</t>
+          <t>Joel 3:13</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>So you shall know that I am the Lord your God, - who dwells in Zion, my holy mountain. - And Jerusalem shall be holy, - and strangers shall never again pass through it. -</t>
+          <t>y Put in the sickle, z for the harvest is ripe. a Go in, tread, a for the winepress is full. The vats overflow, for their evil is great.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Joel 3:18</t>
+          <t>Joel 3:14</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>And in that day - the mountains shall drip sweet wine, - and the hills shall flow with milk, - and all the streambeds of Judah - shall flow with water; - and a fountain shall come forth from the house of the Lord - and water the Valley of Shittim. -</t>
+          <t>Multitudes, multitudes, in the valley of decision! For b the day of the Lord is near in the valley of decision.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Joel 3:19</t>
+          <t>Joel 3:15</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Egypt shall become a desolation - and Edom a desolate wilderness, - for the violence done to the people of Judah, - because they have shed innocent blood in their land. -</t>
+          <t>c The sun and the moon are darkened, and the stars withdraw their shining.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Joel 3:20</t>
+          <t>Joel 3:16</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>But Judah shall be inhabited forever, - and Jerusalem to all generations. -</t>
+          <t>d The Lord roars from Zion, and d utters his voice from Jerusalem, e and the heavens and the earth quake. But the Lord is f a refuge to his people, a stronghold to the people of Israel. The Glorious Future of Judah</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>Joel 3:17</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>g So you shall know that I am the Lord your God, h who dwells in Zion, i my holy mountain. And Jerusalem shall be holy, and j strangers shall never again pass through it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Joel 3:18</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>And in that day k the mountains shall drip sweet wine, and the hills shall flow with milk, and l all the streambeds of Judah shall flow with water; m and a fountain shall come forth from the house of the Lord and water the Valley of n Shittim.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Joel 3:19</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>o Egypt shall become a desolation and p Edom a desolate wilderness, q for the violence done to the people of Judah, because they have shed innocent blood in their land.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Joel 3:20</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>r But Judah shall be inhabited forever, and Jerusalem to all generations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
           <t>Joel 3:21</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>I will avenge their blood, - blood I have not avenged, - for the Lord dwells in Zion.</t>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>s I will avenge their blood, blood I have not avenged, h for the Lord dwells in Zion.</t>
         </is>
       </c>
     </row>
